--- a/0911/FerramentaFPA-ProfRJP-Manual.xlsx
+++ b/0911/FerramentaFPA-ProfRJP-Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Desktop\FIAP_GOVERNANCA\0911\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6F9FF-190D-4D6D-B02F-5511566204CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A79D4F-DBB8-409C-93F2-FB340A6C1493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>FERRAMENTA DE ESTIATIVA DE PONTOS DE SOFTWARE POR ANÁLISE DE PONTOS DE FUNÇÃO (FPA - FUNCTION POINT ANALYSIS)</t>
   </si>
@@ -236,9 +236,6 @@
     <t>Base de produto, Base de histórico de preço</t>
   </si>
   <si>
-    <t>Base de produto, Base de export de produto</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -249,6 +246,40 @@
   </si>
   <si>
     <t>Registro de dados exportados de produto</t>
+  </si>
+  <si>
+    <t>idProd, nmProd, vlProd, cdFabric, cdUnidMedida</t>
+  </si>
+  <si>
+    <t>idProd, nmProd, vlProd, cdFabric, cdUnidMedida, dtExport</t>
+  </si>
+  <si>
+    <t>idProd, dtInicioPreco, dtFimPreco, vlProd</t>
+  </si>
+  <si>
+    <t>idProd, nmProd, vlProd, cdFabric, cdUnidMedida, dtInicioPreco, dtFimPreco</t>
+  </si>
+  <si>
+    <t>idProd, vlProd, dtInicioPreco, dtFimPreco</t>
+  </si>
+  <si>
+    <t>nmProd, vlProd, cdFabric, cdUnidMedida</t>
+  </si>
+  <si>
+    <t>Arquivos INPUT: Base de produto
+Arquivos OUTPUT: Base de export de produto</t>
+  </si>
+  <si>
+    <t>IN: 1
+OUT: 1</t>
+  </si>
+  <si>
+    <t>Dados INPUT: idProd, nmProd, vlProd, cdFabric, cdUnidMedida
+Dados OUTPUT: idProd, nmProd, vlProd, cdFabric, cdUnidMedida, dtExport</t>
+  </si>
+  <si>
+    <t>IN: 5
+OUT: 6</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>54</v>
       </c>
@@ -1547,17 +1578,21 @@
         <v>7</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="E9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="31">
+        <v>5</v>
+      </c>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>55</v>
       </c>
@@ -1565,17 +1600,21 @@
         <v>7</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="31">
         <v>1</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="31">
+        <v>4</v>
+      </c>
       <c r="G10" s="34"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>56</v>
       </c>
@@ -1583,17 +1622,21 @@
         <v>8</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="31">
         <v>1</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="31"/>
+      <c r="E11" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="31">
+        <v>6</v>
+      </c>
       <c r="G11" s="34"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>57</v>
       </c>
@@ -1606,12 +1649,16 @@
       <c r="D12" s="31">
         <v>2</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="31">
+        <v>7</v>
+      </c>
       <c r="G12" s="34"/>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>58</v>
       </c>
@@ -1624,12 +1671,16 @@
       <c r="D13" s="31">
         <v>2</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="31"/>
+      <c r="E13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="31">
+        <v>4</v>
+      </c>
       <c r="G13" s="34"/>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>59</v>
       </c>
@@ -1642,8 +1693,12 @@
       <c r="D14" s="31">
         <v>1</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="31"/>
+      <c r="E14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="31">
+        <v>5</v>
+      </c>
       <c r="G14" s="34"/>
       <c r="H14" s="31"/>
     </row>
@@ -1660,12 +1715,16 @@
       <c r="D15" s="31">
         <v>1</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="31"/>
+      <c r="E15" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="31">
+        <v>5</v>
+      </c>
       <c r="G15" s="34"/>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>61</v>
       </c>
@@ -1673,14 +1732,20 @@
         <v>6</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="31">
-        <v>2</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="34"/>
+        <v>76</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1691,13 +1756,17 @@
         <v>4</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="31">
         <v>0</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="31"/>
+      <c r="E17" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="31">
+        <v>4</v>
+      </c>
       <c r="G17" s="34"/>
       <c r="H17" s="31"/>
     </row>
@@ -1709,13 +1778,17 @@
         <v>4</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="31">
         <v>0</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="31"/>
+      <c r="E18" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="31">
+        <v>5</v>
+      </c>
       <c r="G18" s="34"/>
       <c r="H18" s="31"/>
     </row>
@@ -1727,13 +1800,17 @@
         <v>5</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="31">
         <v>0</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="31"/>
+      <c r="E19" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="31">
+        <v>5</v>
+      </c>
       <c r="G19" s="34"/>
       <c r="H19" s="31"/>
     </row>
